--- a/Detectron2Predictor/classes.xlsx
+++ b/Detectron2Predictor/classes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>CITYSCAPES</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Train ID</t>
   </si>
   <si>
-    <t>Confusing classes</t>
+    <t>RED: Confusing classes</t>
   </si>
   <si>
     <t xml:space="preserve">unlabeled           </t>
@@ -49,75 +49,78 @@
     <t xml:space="preserve">Dynamic     </t>
   </si>
   <si>
+    <t xml:space="preserve">Water       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ego vehicle         </t>
+  </si>
+  <si>
+    <t>rectification border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out of roi          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">static              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamic             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">road                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoadLine    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sidewalk            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SideWalk    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rail track          </t>
+  </si>
+  <si>
     <t xml:space="preserve">RailTrack   </t>
   </si>
   <si>
+    <t xml:space="preserve">building            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fence               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fence       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guard rail          </t>
+  </si>
+  <si>
     <t xml:space="preserve">GuardRail   </t>
   </si>
   <si>
-    <t xml:space="preserve">ego vehicle         </t>
-  </si>
-  <si>
-    <t>rectification border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out of roi          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">static              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">road                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoadLine    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sidewalk            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SideWalk    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parking             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rail track          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">building            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fence               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fence       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">guard rail          </t>
-  </si>
-  <si>
     <t xml:space="preserve">bridge              </t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t xml:space="preserve">Terrain     </t>
   </si>
   <si>
-    <t xml:space="preserve">Water       </t>
-  </si>
-  <si>
     <t xml:space="preserve">sky                 </t>
   </si>
   <si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">license plate       </t>
+  </si>
+  <si>
+    <t>255: ignored</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +232,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,9 +251,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,7 +297,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,113 +358,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,19 +410,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,163 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +601,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,17 +637,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,21 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -676,13 +687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,152 +706,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,13 +864,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1180,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1195,55 +1213,66 @@
     <col min="7" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>255</v>
       </c>
       <c r="E4" t="s">
@@ -1252,112 +1281,106 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="2">
         <v>20</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="2">
-        <v>16</v>
-      </c>
-      <c r="O4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
+      <c r="A6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
+      <c r="A7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
+      <c r="A9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
+      <c r="A10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1366,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1389,36 +1412,42 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
+      <c r="A13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>255</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B15">
@@ -1435,7 +1464,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B16">
@@ -1452,7 +1481,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B17">
@@ -1468,48 +1497,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>255</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
+      <c r="A19" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>255</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>36</v>
+      <c r="A20" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
+      <c r="A21" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -1518,26 +1553,26 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>39</v>
+      <c r="A22" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>40</v>
+      <c r="A23" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -1546,15 +1581,15 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>42</v>
+      <c r="A24" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -1563,15 +1598,15 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
+      <c r="A25" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -1580,15 +1615,15 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
-        <v>46</v>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B26">
         <v>22</v>
@@ -1597,20 +1632,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>22</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="2">
-        <v>21</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B27">
@@ -1627,7 +1656,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B28">
@@ -1636,15 +1665,15 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B29">
@@ -1653,9 +1682,15 @@
       <c r="C29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B30">
@@ -1664,15 +1699,15 @@
       <c r="C30">
         <v>13</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="2">
+      <c r="F30" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B31">
@@ -1681,9 +1716,15 @@
       <c r="C31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B32">
@@ -1692,31 +1733,41 @@
       <c r="C32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>255</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B35">
@@ -1725,9 +1776,15 @@
       <c r="C35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="E35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B36">
@@ -1736,9 +1793,15 @@
       <c r="C36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
+      <c r="E36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B37">
@@ -1747,23 +1810,33 @@
       <c r="C37">
         <v>18</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B38">
         <v>-1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>-1</v>
       </c>
     </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Detectron2Predictor/classes.xlsx
+++ b/Detectron2Predictor/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27555" windowHeight="12165"/>
+    <workbookView windowWidth="10275" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>CITYSCAPES</t>
   </si>
   <si>
+    <t>blue: ignored</t>
+  </si>
+  <si>
     <t>CARLA</t>
   </si>
   <si>
@@ -28,6 +31,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Cityscapes to Carla</t>
+  </si>
+  <si>
     <t>Train ID</t>
   </si>
   <si>
@@ -43,36 +49,36 @@
     <t xml:space="preserve">Other       </t>
   </si>
   <si>
+    <t xml:space="preserve">ego vehicle         </t>
+  </si>
+  <si>
+    <t>rectification border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out of roi          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">static              </t>
+  </si>
+  <si>
     <t xml:space="preserve">Static      </t>
   </si>
   <si>
+    <t xml:space="preserve">dynamic             </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dynamic     </t>
   </si>
   <si>
+    <t xml:space="preserve">ground              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground      </t>
+  </si>
+  <si>
     <t xml:space="preserve">Water       </t>
   </si>
   <si>
-    <t xml:space="preserve">ego vehicle         </t>
-  </si>
-  <si>
-    <t>rectification border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out of roi          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">static              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground      </t>
-  </si>
-  <si>
     <t xml:space="preserve">road                </t>
   </si>
   <si>
@@ -206,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">license plate       </t>
-  </si>
-  <si>
-    <t>255: ignored</t>
   </si>
 </sst>
 </file>
@@ -216,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -238,14 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,6 +268,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -280,9 +298,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,111 +403,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,25 +413,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +545,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,139 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +634,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,24 +687,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,142 +709,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,21 +862,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1198,645 +1207,955 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="7" max="16" width="9" style="2"/>
+    <col min="4" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="8" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:17">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>255</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:17">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>255</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:17">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>255</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:17">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>255</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>255</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:17">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>255</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
         <v>255</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="G10" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="I10" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>255</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
-        <v>19</v>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5">
         <v>255</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
+    <row r="18" s="2" customFormat="1" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5">
         <v>255</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:17">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5">
         <v>255</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:17">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
+      <c r="D21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:17">
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
+        <v>18</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
+        <v>12</v>
+      </c>
+      <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>45</v>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
+        <v>22</v>
+      </c>
+      <c r="D26">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>49</v>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
+        <v>13</v>
+      </c>
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>51</v>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>11</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>54</v>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
-        <v>56</v>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>57</v>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32">
         <v>15</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33">
+    <row r="33" s="2" customFormat="1" spans="1:17">
+      <c r="A33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
         <v>255</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:17">
+      <c r="A34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2">
         <v>30</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
         <v>255</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>60</v>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B35">
         <v>31</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35">
         <v>16</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>61</v>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>17</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>62</v>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B37">
         <v>33</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>18</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38">
+    <row r="38" s="2" customFormat="1" spans="1:17">
+      <c r="A38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2">
         <v>-1</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
